--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.134409971286605</v>
+        <v>0.135131</v>
       </c>
       <c r="H2">
-        <v>0.134409971286605</v>
+        <v>0.405393</v>
       </c>
       <c r="I2">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="J2">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N2">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q2">
-        <v>19.22866377868436</v>
+        <v>19.497144179942</v>
       </c>
       <c r="R2">
-        <v>19.22866377868436</v>
+        <v>175.474297619478</v>
       </c>
       <c r="S2">
-        <v>0.08482843133300089</v>
+        <v>0.08174001462955155</v>
       </c>
       <c r="T2">
-        <v>0.08482843133300089</v>
+        <v>0.08174001462955155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.134409971286605</v>
+        <v>0.135131</v>
       </c>
       <c r="H3">
-        <v>0.134409971286605</v>
+        <v>0.405393</v>
       </c>
       <c r="I3">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="J3">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N3">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q3">
-        <v>3.997752841744472</v>
+        <v>4.053175068146667</v>
       </c>
       <c r="R3">
-        <v>3.997752841744472</v>
+        <v>36.47857561332</v>
       </c>
       <c r="S3">
-        <v>0.01763633221348224</v>
+        <v>0.01699257010712775</v>
       </c>
       <c r="T3">
-        <v>0.01763633221348224</v>
+        <v>0.01699257010712775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.134409971286605</v>
+        <v>0.135131</v>
       </c>
       <c r="H4">
-        <v>0.134409971286605</v>
+        <v>0.405393</v>
       </c>
       <c r="I4">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="J4">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N4">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q4">
-        <v>4.2347052631592</v>
+        <v>4.271347851314667</v>
       </c>
       <c r="R4">
-        <v>4.2347052631592</v>
+        <v>38.442130661832</v>
       </c>
       <c r="S4">
-        <v>0.01868166237477246</v>
+        <v>0.01790723977994417</v>
       </c>
       <c r="T4">
-        <v>0.01868166237477246</v>
+        <v>0.01790723977994417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.134409971286605</v>
+        <v>0.135131</v>
       </c>
       <c r="H5">
-        <v>0.134409971286605</v>
+        <v>0.405393</v>
       </c>
       <c r="I5">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="J5">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N5">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q5">
-        <v>4.285996644119201</v>
+        <v>4.428556148701666</v>
       </c>
       <c r="R5">
-        <v>4.285996644119201</v>
+        <v>39.857005338315</v>
       </c>
       <c r="S5">
-        <v>0.01890793745232431</v>
+        <v>0.01856632135669736</v>
       </c>
       <c r="T5">
-        <v>0.01890793745232431</v>
+        <v>0.01856632135669736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.134409971286605</v>
+        <v>0.135131</v>
       </c>
       <c r="H6">
-        <v>0.134409971286605</v>
+        <v>0.405393</v>
       </c>
       <c r="I6">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="J6">
-        <v>0.1481345011374588</v>
+        <v>0.1435196772981866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N6">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q6">
-        <v>1.831582287985026</v>
+        <v>1.982995985132667</v>
       </c>
       <c r="R6">
-        <v>1.831582287985026</v>
+        <v>17.846963866194</v>
       </c>
       <c r="S6">
-        <v>0.008080137763878932</v>
+        <v>0.008313531424865749</v>
       </c>
       <c r="T6">
-        <v>0.008080137763878932</v>
+        <v>0.008313531424865749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.772940917632119</v>
+        <v>0.8064193333333334</v>
       </c>
       <c r="H7">
-        <v>0.772940917632119</v>
+        <v>2.419258</v>
       </c>
       <c r="I7">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="J7">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N7">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q7">
-        <v>110.5767740567694</v>
+        <v>116.3528280815854</v>
       </c>
       <c r="R7">
-        <v>110.5767740567694</v>
+        <v>1047.175452734268</v>
       </c>
       <c r="S7">
-        <v>0.4878162306575629</v>
+        <v>0.4877987146118942</v>
       </c>
       <c r="T7">
-        <v>0.4878162306575629</v>
+        <v>0.4877987146118942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.772940917632119</v>
+        <v>0.8064193333333334</v>
       </c>
       <c r="H8">
-        <v>0.772940917632119</v>
+        <v>2.419258</v>
       </c>
       <c r="I8">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="J8">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N8">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q8">
-        <v>22.9895648394676</v>
+        <v>24.18807480399111</v>
       </c>
       <c r="R8">
-        <v>22.9895648394676</v>
+        <v>217.69267323592</v>
       </c>
       <c r="S8">
-        <v>0.1014198773667351</v>
+        <v>0.1014063172581412</v>
       </c>
       <c r="T8">
-        <v>0.1014198773667351</v>
+        <v>0.1014063172581412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.772940917632119</v>
+        <v>0.8064193333333334</v>
       </c>
       <c r="H9">
-        <v>0.772940917632119</v>
+        <v>2.419258</v>
       </c>
       <c r="I9">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="J9">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N9">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q9">
-        <v>24.35218861127779</v>
+        <v>25.49006139739911</v>
       </c>
       <c r="R9">
-        <v>24.35218861127779</v>
+        <v>229.410552576592</v>
       </c>
       <c r="S9">
-        <v>0.1074311758318864</v>
+        <v>0.1068647783645701</v>
       </c>
       <c r="T9">
-        <v>0.1074311758318864</v>
+        <v>0.1068647783645701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.772940917632119</v>
+        <v>0.8064193333333334</v>
       </c>
       <c r="H10">
-        <v>0.772940917632119</v>
+        <v>2.419258</v>
       </c>
       <c r="I10">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="J10">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N10">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q10">
-        <v>24.64714594730239</v>
+        <v>26.42823110215445</v>
       </c>
       <c r="R10">
-        <v>24.64714594730239</v>
+        <v>237.85407991939</v>
       </c>
       <c r="S10">
-        <v>0.1087323982367872</v>
+        <v>0.1107979700506938</v>
       </c>
       <c r="T10">
-        <v>0.1087323982367872</v>
+        <v>0.1107979700506938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.772940917632119</v>
+        <v>0.8064193333333334</v>
       </c>
       <c r="H11">
-        <v>0.772940917632119</v>
+        <v>2.419258</v>
       </c>
       <c r="I11">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="J11">
-        <v>0.8518654988625411</v>
+        <v>0.8564803227018134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N11">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q11">
-        <v>10.53273712390837</v>
+        <v>11.83389673970711</v>
       </c>
       <c r="R11">
-        <v>10.53273712390837</v>
+        <v>106.505070657364</v>
       </c>
       <c r="S11">
-        <v>0.04646581676956975</v>
+        <v>0.049612542416514</v>
       </c>
       <c r="T11">
-        <v>0.04646581676956975</v>
+        <v>0.049612542416514</v>
       </c>
     </row>
   </sheetData>
